--- a/tai_lieu/Bán Hàng.xlsx
+++ b/tai_lieu/Bán Hàng.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>nhan_vien</t>
   </si>
@@ -49,12 +49,18 @@
     <t>mat_khau</t>
   </si>
   <si>
+    <t>the_loai_chi_tiet</t>
+  </si>
+  <si>
     <t>cap_do</t>
   </si>
   <si>
     <t>0: nhân viên</t>
   </si>
   <si>
+    <t>ma_the_loai</t>
+  </si>
+  <si>
     <t>1: quản lý</t>
   </si>
   <si>
@@ -106,7 +112,10 @@
     <t>ghi_chu</t>
   </si>
   <si>
-    <t>ma_the_loai</t>
+    <t>ma_the_loai_chi_tiet</t>
+  </si>
+  <si>
+    <t>trang_thai</t>
   </si>
   <si>
     <t>hoa_don_chi_tiet</t>
@@ -369,6 +378,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="10" max="10" width="20.0"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="1" t="s">
@@ -448,34 +460,43 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -491,10 +512,10 @@
     </row>
     <row r="19">
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>5</v>
@@ -502,71 +523,77 @@
     </row>
     <row r="20">
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="G23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="29">
       <c r="H29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="H31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
